--- a/src/test/DataSheets/Testcases.xlsx
+++ b/src/test/DataSheets/Testcases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Test Case</t>
   </si>
@@ -396,8 +396,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6640625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.77734375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
